--- a/paper_1/pictures/Лист Microsoft Excel.xlsx
+++ b/paper_1/pictures/Лист Microsoft Excel.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -18167,11 +18168,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="547115224"/>
-        <c:axId val="547116792"/>
+        <c:axId val="243466792"/>
+        <c:axId val="243467176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="547115224"/>
+        <c:axId val="243466792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18228,12 +18229,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547116792"/>
+        <c:crossAx val="243467176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="547116792"/>
+        <c:axId val="243467176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18290,7 +18291,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547115224"/>
+        <c:crossAx val="243466792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19219,7 +19220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -43229,4 +43230,619 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2219</v>
+      </c>
+      <c r="E1">
+        <f>A1*4</f>
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2217</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E40" si="0">A2*4</f>
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2219</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2219</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2219</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2221</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2222</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2223</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2221</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2214</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F10">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2206</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2205</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="F12">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2204</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="F13">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2206</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="F14">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2207</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F15">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2210</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2212</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F17">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2216</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="F18">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2216</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="F19">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2217</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="F20">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2217</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F21">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2217</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="F22">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2217</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="F23">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2217</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="F24">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2216</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="F25">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2219</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2223</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="F27">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2222</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="F28">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2221</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="F29">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2221</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="F30">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>2219</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F31">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>2218</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="F32">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>2219</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="F33">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>2220</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="F34">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>2221</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="F35">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>2224</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="F36">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2222</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="F37">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2219</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F38">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2221</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="F39">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>2225</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="F40">
+        <v>2225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>